--- a/kyivbot/resources/food_stores/others.xlsx
+++ b/kyivbot/resources/food_stores/others.xlsx
@@ -1,108 +1,106 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5_sem\nlp_works\task3\data\food_stores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5_sem\nlp_works\kyivbot\resources\food_stores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6958B3D2-5E34-4106-B8B7-4FDED51D0118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3292C9-2C88-48B3-9202-B4EF236F8B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>пр. Перемоги, 129</t>
-  </si>
-  <si>
-    <t>вул. Р. Окіпної, 8б</t>
-  </si>
-  <si>
-    <t>Харківське шосе, 160</t>
-  </si>
-  <si>
-    <t>пр. Оболонський, 20а</t>
-  </si>
-  <si>
-    <t>пр. Бажана, 10а</t>
-  </si>
-  <si>
-    <t>вул. Вишгородська, 45а/5</t>
-  </si>
-  <si>
-    <t>вул. Васильківська, 34</t>
-  </si>
-  <si>
-    <t>вул. О. Малишка, 3 (ТЦ "Дитячий світ")</t>
-  </si>
-  <si>
-    <t>б-р Перова, 36 (ТЦ "Квадрат")</t>
-  </si>
-  <si>
-    <t>вул. Оноре де Бальзака, 91/29а (ТЦ "Квадрат")</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>others</t>
   </si>
   <si>
     <t>varus</t>
   </si>
   <si>
+    <t>Varus - пр. Перемоги, 129</t>
+  </si>
+  <si>
+    <t>Varus - вул. Р. Окіпної, 8б</t>
+  </si>
+  <si>
+    <t>Varus - Харківське шосе, 160</t>
+  </si>
+  <si>
+    <t>Varus - пр. Оболонський, 20а</t>
+  </si>
+  <si>
+    <t>Varus - пр. Бажана, 10а</t>
+  </si>
+  <si>
+    <t>Varus - вул. Вишгородська, 45а/5</t>
+  </si>
+  <si>
+    <t>Varus - вул. Васильківська, 34</t>
+  </si>
+  <si>
+    <t>Varus - вул. О. Малишка, 3 (ТЦ "Дитячий світ")</t>
+  </si>
+  <si>
+    <t>Varus - б-р Перова, 36 (ТЦ "Квадрат")</t>
+  </si>
+  <si>
+    <t>Varus - вул. Оноре де Бальзака, 91/29а (ТЦ "Квадрат")</t>
+  </si>
+  <si>
     <t>metro</t>
   </si>
   <si>
-    <t>просп. Степана Бандери, 26-в</t>
-  </si>
-  <si>
-    <t>просп. Григоренка 43</t>
-  </si>
-  <si>
-    <t>вул. Сабурова 2-а</t>
-  </si>
-  <si>
-    <t>вул. Кільцева дорога 1-в</t>
+    <t>Metro - просп. Степана Бандери, 26-в</t>
+  </si>
+  <si>
+    <t>Metro - просп. Григоренка 43</t>
+  </si>
+  <si>
+    <t>Metro - вул. Сабурова 2-а</t>
+  </si>
+  <si>
+    <t>Metro - вул. Кільцева дорога 1-в</t>
   </si>
   <si>
     <t>megamarket</t>
   </si>
   <si>
-    <t xml:space="preserve">ул. Горького, 50 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ул. Киевская, 316 </t>
-  </si>
-  <si>
-    <t>Новообуховское шоссе - 1, д.16</t>
-  </si>
-  <si>
-    <t>Сурикова 3;</t>
-  </si>
-  <si>
-    <t>Гетьмана 6.</t>
+    <t xml:space="preserve">Mega Market - ул. Горького, 50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mega Market - ул. Киевская, 316 </t>
+  </si>
+  <si>
+    <t>Mega Market - Новообуховское шоссе - 1, д.16</t>
+  </si>
+  <si>
+    <t>Mega Market - Проспект Степана Бандери, 6;</t>
+  </si>
+  <si>
+    <t>Mega Market - Сурикова 3;</t>
+  </si>
+  <si>
+    <t>Mega Market - Гетьмана 6.</t>
   </si>
   <si>
     <t>fozzy</t>
   </si>
   <si>
-    <t>вул. Заболотного, 37</t>
-  </si>
-  <si>
-    <t>Проспект Степана Бандери, 23</t>
-  </si>
-  <si>
-    <t>Проспект Степана Бандери, 6;</t>
+    <t>Fozzy - вул. Заболотного, 37</t>
+  </si>
+  <si>
+    <t>Fozzy - Проспект Степана Бандери, 23</t>
   </si>
 </sst>
 </file>
@@ -429,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,108 +442,143 @@
     <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
 </worksheet>
 </file>